--- a/Orange-HRM-Test Execution _Defect Reporting (1).xlsx
+++ b/Orange-HRM-Test Execution _Defect Reporting (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubProjectdetails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5895,7 +5895,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
